--- a/ResultadoEleicoesDistritos/FARO_LAGOA (ALGARVE).xlsx
+++ b/ResultadoEleicoesDistritos/FARO_LAGOA (ALGARVE).xlsx
@@ -597,64 +597,64 @@
         <v>5674</v>
       </c>
       <c r="H2" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I2" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J2" t="n">
-        <v>2364</v>
+        <v>2279</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
         <v>414</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="S2" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="T2" t="n">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="U2" t="n">
         <v>27</v>
       </c>
       <c r="V2" t="n">
-        <v>3603</v>
+        <v>3662</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3647</v>
+      </c>
+      <c r="Y2" t="n">
         <v>3</v>
       </c>
-      <c r="X2" t="n">
-        <v>3657</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6</v>
-      </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
